--- a/horarios_optimizados-660-push_gap_0.80.xlsx
+++ b/horarios_optimizados-660-push_gap_0.80.xlsx
@@ -625,37 +625,17 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr"/>
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+      <c r="G5" s="4" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -671,31 +651,55 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L5" s="4" t="inlineStr"/>
+      <c r="M5" s="4" t="inlineStr"/>
+      <c r="N5" s="4" t="inlineStr"/>
       <c r="O5" s="4" t="inlineStr"/>
-      <c r="P5" s="4" t="inlineStr"/>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr"/>
-      <c r="S5" s="4" t="inlineStr"/>
-      <c r="T5" s="4" t="inlineStr"/>
-      <c r="U5" s="4" t="inlineStr"/>
-      <c r="V5" s="4" t="inlineStr"/>
-      <c r="W5" s="4" t="inlineStr"/>
-      <c r="X5" s="4" t="inlineStr"/>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y5" s="4" t="inlineStr"/>
       <c r="Z5" s="4" t="inlineStr"/>
     </row>
@@ -715,19 +719,67 @@
       <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="4" t="inlineStr"/>
       <c r="K6" s="4" t="inlineStr"/>
-      <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="4" t="inlineStr"/>
-      <c r="N6" s="4" t="inlineStr"/>
-      <c r="O6" s="4" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P6" s="4" t="inlineStr"/>
-      <c r="Q6" s="4" t="inlineStr"/>
-      <c r="R6" s="4" t="inlineStr"/>
-      <c r="S6" s="4" t="inlineStr"/>
-      <c r="T6" s="4" t="inlineStr"/>
-      <c r="U6" s="4" t="inlineStr"/>
-      <c r="V6" s="4" t="inlineStr"/>
-      <c r="W6" s="4" t="inlineStr"/>
-      <c r="X6" s="4" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y6" s="4" t="inlineStr"/>
       <c r="Z6" s="4" t="inlineStr"/>
     </row>
@@ -737,60 +789,36 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr"/>
-      <c r="M7" s="4" t="inlineStr"/>
-      <c r="N7" s="4" t="inlineStr"/>
-      <c r="O7" s="4" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr"/>
+      <c r="H7" s="4" t="inlineStr"/>
+      <c r="I7" s="4" t="inlineStr"/>
+      <c r="J7" s="4" t="inlineStr"/>
+      <c r="K7" s="4" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -801,11 +829,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R7" s="4" t="inlineStr"/>
       <c r="S7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -831,9 +855,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="X7" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
+      <c r="X7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
         </is>
       </c>
       <c r="Y7" s="4" t="inlineStr"/>
@@ -845,42 +869,70 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr"/>
-      <c r="C8" s="4" t="inlineStr"/>
-      <c r="D8" s="4" t="inlineStr"/>
-      <c r="E8" s="4" t="inlineStr"/>
-      <c r="F8" s="4" t="inlineStr"/>
-      <c r="G8" s="4" t="inlineStr"/>
-      <c r="H8" s="4" t="inlineStr"/>
-      <c r="I8" s="4" t="inlineStr"/>
-      <c r="J8" s="4" t="inlineStr"/>
-      <c r="K8" s="4" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L8" s="4" t="inlineStr"/>
+      <c r="M8" s="4" t="inlineStr"/>
+      <c r="N8" s="4" t="inlineStr"/>
+      <c r="O8" s="4" t="inlineStr"/>
       <c r="P8" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="Q8" s="4" t="inlineStr"/>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -906,16 +958,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="W8" s="4" t="inlineStr"/>
+      <c r="X8" s="4" t="inlineStr"/>
       <c r="Y8" s="4" t="inlineStr"/>
       <c r="Z8" s="4" t="inlineStr"/>
     </row>
@@ -953,15 +997,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J9" s="4" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K9" s="4" t="inlineStr"/>
       <c r="L9" s="4" t="inlineStr"/>
       <c r="M9" s="4" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N9" s="4" t="inlineStr"/>
       <c r="O9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1132,69 +1176,21 @@
       <c r="B11" s="4" t="inlineStr"/>
       <c r="C11" s="4" t="inlineStr"/>
       <c r="D11" s="4" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
+      <c r="G11" s="4" t="inlineStr"/>
+      <c r="H11" s="4" t="inlineStr"/>
       <c r="I11" s="4" t="inlineStr"/>
       <c r="J11" s="4" t="inlineStr"/>
       <c r="K11" s="4" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L11" s="4" t="inlineStr"/>
+      <c r="M11" s="4" t="inlineStr"/>
+      <c r="N11" s="4" t="inlineStr"/>
+      <c r="O11" s="4" t="inlineStr"/>
+      <c r="P11" s="4" t="inlineStr"/>
+      <c r="Q11" s="4" t="inlineStr"/>
+      <c r="R11" s="4" t="inlineStr"/>
+      <c r="S11" s="4" t="inlineStr"/>
       <c r="T11" s="4" t="inlineStr"/>
       <c r="U11" s="4" t="inlineStr"/>
       <c r="V11" s="4" t="inlineStr"/>
@@ -1328,7 +1324,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P15" s="4" t="inlineStr"/>
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q15" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1344,11 +1344,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T15" s="4" t="inlineStr"/>
       <c r="U15" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1555,15 +1551,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K18" s="4" t="inlineStr"/>
       <c r="L18" s="4" t="inlineStr"/>
       <c r="M18" s="4" t="inlineStr"/>
       <c r="N18" s="4" t="inlineStr"/>
-      <c r="O18" s="4" t="inlineStr"/>
+      <c r="O18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1648,17 +1644,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P19" s="4" t="inlineStr"/>
+      <c r="P19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q19" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="R19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R19" s="4" t="inlineStr"/>
       <c r="S19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1698,22 +1694,42 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr"/>
-      <c r="C20" s="4" t="inlineStr"/>
-      <c r="D20" s="4" t="inlineStr"/>
-      <c r="E20" s="4" t="inlineStr"/>
-      <c r="F20" s="4" t="inlineStr"/>
-      <c r="G20" s="4" t="inlineStr"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I20" s="4" t="inlineStr"/>
       <c r="J20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1724,10 +1740,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L20" s="4" t="inlineStr"/>
-      <c r="M20" s="4" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr"/>
-      <c r="O20" s="4" t="inlineStr"/>
+      <c r="L20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1748,41 +1780,13 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Z20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T20" s="4" t="inlineStr"/>
+      <c r="U20" s="4" t="inlineStr"/>
+      <c r="V20" s="4" t="inlineStr"/>
+      <c r="W20" s="4" t="inlineStr"/>
+      <c r="X20" s="4" t="inlineStr"/>
+      <c r="Y20" s="4" t="inlineStr"/>
+      <c r="Z20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1790,26 +1794,10 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B21" s="4" t="inlineStr"/>
+      <c r="C21" s="4" t="inlineStr"/>
+      <c r="D21" s="4" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1830,20 +1818,28 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr"/>
-      <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr"/>
-      <c r="O21" s="4" t="inlineStr"/>
+      <c r="J21" s="4" t="inlineStr"/>
+      <c r="K21" s="4" t="inlineStr"/>
+      <c r="L21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1967,22 +1963,42 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr"/>
-      <c r="C25" s="4" t="inlineStr"/>
-      <c r="D25" s="4" t="inlineStr"/>
-      <c r="E25" s="4" t="inlineStr"/>
-      <c r="F25" s="4" t="inlineStr"/>
-      <c r="G25" s="4" t="inlineStr"/>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I25" s="4" t="inlineStr"/>
       <c r="J25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1993,55 +2009,31 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L25" s="4" t="inlineStr"/>
-      <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr"/>
+      <c r="L25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O25" s="4" t="inlineStr"/>
-      <c r="P25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P25" s="4" t="inlineStr"/>
+      <c r="Q25" s="4" t="inlineStr"/>
+      <c r="R25" s="4" t="inlineStr"/>
+      <c r="S25" s="4" t="inlineStr"/>
+      <c r="T25" s="4" t="inlineStr"/>
+      <c r="U25" s="4" t="inlineStr"/>
+      <c r="V25" s="4" t="inlineStr"/>
+      <c r="W25" s="4" t="inlineStr"/>
+      <c r="X25" s="4" t="inlineStr"/>
       <c r="Y25" s="4" t="inlineStr"/>
       <c r="Z25" s="4" t="inlineStr"/>
     </row>
@@ -2061,67 +2053,19 @@
       <c r="I26" s="4" t="inlineStr"/>
       <c r="J26" s="4" t="inlineStr"/>
       <c r="K26" s="4" t="inlineStr"/>
-      <c r="L26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L26" s="4" t="inlineStr"/>
+      <c r="M26" s="4" t="inlineStr"/>
+      <c r="N26" s="4" t="inlineStr"/>
+      <c r="O26" s="4" t="inlineStr"/>
       <c r="P26" s="4" t="inlineStr"/>
-      <c r="Q26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q26" s="4" t="inlineStr"/>
+      <c r="R26" s="4" t="inlineStr"/>
+      <c r="S26" s="4" t="inlineStr"/>
+      <c r="T26" s="4" t="inlineStr"/>
+      <c r="U26" s="4" t="inlineStr"/>
+      <c r="V26" s="4" t="inlineStr"/>
+      <c r="W26" s="4" t="inlineStr"/>
+      <c r="X26" s="4" t="inlineStr"/>
       <c r="Y26" s="4" t="inlineStr"/>
       <c r="Z26" s="4" t="inlineStr"/>
     </row>
@@ -2131,36 +2075,60 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr"/>
-      <c r="C27" s="4" t="inlineStr"/>
-      <c r="D27" s="4" t="inlineStr"/>
-      <c r="E27" s="4" t="inlineStr"/>
-      <c r="F27" s="4" t="inlineStr"/>
-      <c r="G27" s="4" t="inlineStr"/>
-      <c r="H27" s="4" t="inlineStr"/>
-      <c r="I27" s="4" t="inlineStr"/>
-      <c r="J27" s="4" t="inlineStr"/>
-      <c r="K27" s="4" t="inlineStr"/>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L27" s="4" t="inlineStr"/>
+      <c r="M27" s="4" t="inlineStr"/>
+      <c r="N27" s="4" t="inlineStr"/>
+      <c r="O27" s="4" t="inlineStr"/>
       <c r="P27" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2176,7 +2144,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S27" s="4" t="inlineStr"/>
+      <c r="S27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T27" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2197,9 +2169,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="X27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
+      <c r="X27" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="Y27" s="4" t="inlineStr"/>
@@ -2211,36 +2183,12 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B28" s="4" t="inlineStr"/>
+      <c r="C28" s="4" t="inlineStr"/>
+      <c r="D28" s="4" t="inlineStr"/>
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr"/>
       <c r="H28" s="4" t="inlineStr"/>
       <c r="I28" s="4" t="inlineStr"/>
       <c r="J28" s="4" t="inlineStr"/>
@@ -2280,11 +2228,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="S28" s="4" t="inlineStr"/>
       <c r="T28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2300,8 +2244,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W28" s="4" t="inlineStr"/>
-      <c r="X28" s="4" t="inlineStr"/>
+      <c r="W28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y28" s="4" t="inlineStr"/>
       <c r="Z28" s="4" t="inlineStr"/>
     </row>
@@ -2411,42 +2363,22 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B30" s="4" t="inlineStr"/>
+      <c r="C30" s="4" t="inlineStr"/>
+      <c r="D30" s="4" t="inlineStr"/>
+      <c r="E30" s="4" t="inlineStr"/>
+      <c r="F30" s="4" t="inlineStr"/>
+      <c r="G30" s="4" t="inlineStr"/>
       <c r="H30" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I30" s="4" t="inlineStr"/>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2457,26 +2389,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L30" s="4" t="inlineStr"/>
+      <c r="M30" s="4" t="inlineStr"/>
+      <c r="N30" s="4" t="inlineStr"/>
+      <c r="O30" s="4" t="inlineStr"/>
       <c r="P30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2497,13 +2413,41 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T30" s="4" t="inlineStr"/>
-      <c r="U30" s="4" t="inlineStr"/>
-      <c r="V30" s="4" t="inlineStr"/>
-      <c r="W30" s="4" t="inlineStr"/>
-      <c r="X30" s="4" t="inlineStr"/>
-      <c r="Y30" s="4" t="inlineStr"/>
-      <c r="Z30" s="4" t="inlineStr"/>
+      <c r="T30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Z30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -2511,24 +2455,80 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr"/>
-      <c r="C31" s="4" t="inlineStr"/>
-      <c r="D31" s="4" t="inlineStr"/>
-      <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="4" t="inlineStr"/>
-      <c r="G31" s="4" t="inlineStr"/>
-      <c r="H31" s="4" t="inlineStr"/>
-      <c r="I31" s="4" t="inlineStr"/>
-      <c r="J31" s="4" t="inlineStr"/>
-      <c r="K31" s="4" t="inlineStr"/>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L31" s="4" t="inlineStr"/>
       <c r="M31" s="4" t="inlineStr"/>
       <c r="N31" s="4" t="inlineStr"/>
       <c r="O31" s="4" t="inlineStr"/>
-      <c r="P31" s="4" t="inlineStr"/>
-      <c r="Q31" s="4" t="inlineStr"/>
-      <c r="R31" s="4" t="inlineStr"/>
-      <c r="S31" s="4" t="inlineStr"/>
+      <c r="P31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T31" s="4" t="inlineStr"/>
       <c r="U31" s="4" t="inlineStr"/>
       <c r="V31" s="4" t="inlineStr"/>
@@ -2638,29 +2638,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2681,17 +2681,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -2712,17 +2724,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2731,10 +2743,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -2755,29 +2767,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2803,12 +2815,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -2884,29 +2896,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3049,12 +3049,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -3092,12 +3092,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3130,29 +3130,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -3173,29 +3173,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -3216,29 +3216,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
@@ -3259,29 +3259,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3302,17 +3290,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -3321,10 +3309,10 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -3345,29 +3333,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -3431,29 +3419,29 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -3474,17 +3462,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
